--- a/MasterData/12. AmortTemplateOxygen.xlsx
+++ b/MasterData/12. AmortTemplateOxygen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Unique</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Finance type doesn’t exist in dropdown</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -568,10 +568,10 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -588,10 +588,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -628,10 +628,10 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -648,10 +648,10 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -668,10 +668,10 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -688,10 +688,10 @@
         <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -708,10 +708,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -728,10 +728,10 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -748,10 +748,10 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -768,10 +768,10 @@
         <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -788,10 +788,10 @@
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -808,7 +808,7 @@
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -828,7 +828,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -848,7 +848,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -868,7 +868,7 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -888,10 +888,10 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -908,10 +908,10 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -928,10 +928,10 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -948,10 +948,10 @@
         <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -968,10 +968,10 @@
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -988,10 +988,10 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1008,10 +1008,10 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1028,10 +1028,10 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1048,10 +1048,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1068,10 +1068,10 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -1088,10 +1088,10 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -1108,10 +1108,10 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -1128,7 +1128,7 @@
         <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -1148,7 +1148,7 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -1168,7 +1168,7 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -1188,7 +1188,7 @@
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -1228,10 +1228,10 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -1248,10 +1248,10 @@
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -1268,10 +1268,10 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -1288,7 +1288,7 @@
         <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -1308,7 +1308,7 @@
         <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -1328,7 +1328,7 @@
         <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -1348,7 +1348,7 @@
         <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -1368,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1388,7 +1388,7 @@
         <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1428,7 +1428,7 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1448,7 +1448,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -1468,7 +1468,7 @@
         <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1488,7 +1488,7 @@
         <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -1508,7 +1508,7 @@
         <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -1528,10 +1528,10 @@
         <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -1548,10 +1548,10 @@
         <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
@@ -1568,10 +1568,10 @@
         <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
@@ -1588,10 +1588,10 @@
         <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
@@ -1608,13 +1608,13 @@
         <v>76</v>
       </c>
       <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1628,13 +1628,13 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1648,13 +1648,13 @@
         <v>76</v>
       </c>
       <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -1668,13 +1668,13 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
         <v>24</v>
       </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -1688,13 +1688,13 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1708,13 +1708,13 @@
         <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1728,13 +1728,13 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -1748,13 +1748,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -1768,13 +1768,13 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1788,13 +1788,13 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1808,13 +1808,13 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -1828,13 +1828,13 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -1848,13 +1848,13 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1868,13 +1868,13 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1888,13 +1888,13 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -1908,13 +1908,13 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -1928,13 +1928,13 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1948,13 +1948,13 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -1968,13 +1968,13 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -1988,13 +1988,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -2008,13 +2008,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2028,13 +2028,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2048,13 +2048,13 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2068,13 +2068,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -2088,13 +2088,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2128,13 +2128,13 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -2148,13 +2148,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2168,13 +2168,13 @@
         <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2188,13 +2188,13 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2208,13 +2208,13 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -2228,13 +2228,13 @@
         <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2251,7 +2251,7 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -2271,7 +2271,7 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -2291,7 +2291,7 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
@@ -2311,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -2351,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -2371,7 +2371,7 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -2391,7 +2391,7 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -2411,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
@@ -2431,7 +2431,7 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -2451,7 +2451,7 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -2471,7 +2471,7 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -2491,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
@@ -2511,7 +2511,7 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -2531,7 +2531,7 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -2551,7 +2551,7 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -2651,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -2671,7 +2671,7 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
@@ -2691,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -2711,7 +2711,7 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -2731,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -2751,7 +2751,7 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -2771,7 +2771,7 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -2791,7 +2791,7 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -3128,13 +3128,13 @@
         <v>78</v>
       </c>
       <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
         <v>45</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>46</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3148,13 +3148,13 @@
         <v>78</v>
       </c>
       <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" t="s">
         <v>45</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" t="s">
-        <v>46</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -3168,13 +3168,13 @@
         <v>78</v>
       </c>
       <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
         <v>45</v>
-      </c>
-      <c r="C132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D132" t="s">
-        <v>46</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3188,13 +3188,13 @@
         <v>78</v>
       </c>
       <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
         <v>45</v>
-      </c>
-      <c r="C133" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" t="s">
-        <v>46</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -3208,13 +3208,13 @@
         <v>78</v>
       </c>
       <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
         <v>45</v>
-      </c>
-      <c r="C134" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" t="s">
-        <v>46</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3228,13 +3228,13 @@
         <v>78</v>
       </c>
       <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" t="s">
         <v>45</v>
-      </c>
-      <c r="C135" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" t="s">
-        <v>46</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3248,13 +3248,13 @@
         <v>78</v>
       </c>
       <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" t="s">
         <v>45</v>
-      </c>
-      <c r="C136" t="s">
-        <v>31</v>
-      </c>
-      <c r="D136" t="s">
-        <v>46</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3268,13 +3268,13 @@
         <v>78</v>
       </c>
       <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
         <v>45</v>
-      </c>
-      <c r="C137" t="s">
-        <v>31</v>
-      </c>
-      <c r="D137" t="s">
-        <v>46</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -3288,13 +3288,13 @@
         <v>78</v>
       </c>
       <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
         <v>45</v>
-      </c>
-      <c r="C138" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" t="s">
-        <v>46</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3308,13 +3308,13 @@
         <v>78</v>
       </c>
       <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
         <v>45</v>
-      </c>
-      <c r="C139" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" t="s">
-        <v>46</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -3328,13 +3328,13 @@
         <v>78</v>
       </c>
       <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" t="s">
         <v>45</v>
-      </c>
-      <c r="C140" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" t="s">
-        <v>46</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -3348,13 +3348,13 @@
         <v>78</v>
       </c>
       <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
         <v>45</v>
-      </c>
-      <c r="C141" t="s">
-        <v>43</v>
-      </c>
-      <c r="D141" t="s">
-        <v>46</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -3368,13 +3368,13 @@
         <v>78</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -3388,13 +3388,13 @@
         <v>78</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -3408,13 +3408,13 @@
         <v>81</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -3428,13 +3428,13 @@
         <v>81</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -3448,13 +3448,13 @@
         <v>81</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146">
         <v>3</v>
@@ -3468,13 +3468,13 @@
         <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -3488,13 +3488,13 @@
         <v>81</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -3508,13 +3508,13 @@
         <v>81</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -3528,13 +3528,13 @@
         <v>81</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E150">
         <v>3</v>
@@ -3548,13 +3548,13 @@
         <v>81</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -3568,13 +3568,13 @@
         <v>81</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -3588,13 +3588,13 @@
         <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -3608,13 +3608,13 @@
         <v>81</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -3628,13 +3628,13 @@
         <v>81</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E155">
         <v>4</v>
@@ -3648,13 +3648,13 @@
         <v>81</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -3668,13 +3668,13 @@
         <v>81</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -3688,13 +3688,13 @@
         <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E158">
         <v>3</v>
@@ -3708,13 +3708,13 @@
         <v>81</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -3728,13 +3728,13 @@
         <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -3748,13 +3748,13 @@
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -3768,13 +3768,13 @@
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E162">
         <v>3</v>
@@ -3788,13 +3788,13 @@
         <v>81</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -3808,13 +3808,13 @@
         <v>81</v>
       </c>
       <c r="B164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -3828,13 +3828,13 @@
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -3848,13 +3848,13 @@
         <v>81</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -3868,13 +3868,13 @@
         <v>81</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E167">
         <v>4</v>
@@ -3888,13 +3888,13 @@
         <v>81</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C168" t="s">
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -3908,13 +3908,13 @@
         <v>81</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -3928,13 +3928,13 @@
         <v>81</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -3948,13 +3948,13 @@
         <v>81</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E171">
         <v>4</v>
@@ -3968,10 +3968,10 @@
         <v>84</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -3988,10 +3988,10 @@
         <v>84</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D173" t="s">
         <v>19</v>
@@ -4008,10 +4008,10 @@
         <v>84</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -4028,10 +4028,10 @@
         <v>84</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
@@ -4048,10 +4048,10 @@
         <v>84</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -4068,10 +4068,10 @@
         <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" t="s">
         <v>19</v>
@@ -4088,10 +4088,10 @@
         <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D178" t="s">
         <v>19</v>
@@ -4108,10 +4108,10 @@
         <v>84</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D179" t="s">
         <v>19</v>
@@ -4128,10 +4128,10 @@
         <v>84</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" t="s">
         <v>19</v>
@@ -4148,10 +4148,10 @@
         <v>84</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D181" t="s">
         <v>19</v>
@@ -4168,10 +4168,10 @@
         <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" t="s">
         <v>19</v>
@@ -4188,10 +4188,10 @@
         <v>84</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
@@ -4208,10 +4208,10 @@
         <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
         <v>19</v>
@@ -4228,10 +4228,10 @@
         <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" t="s">
         <v>19</v>
@@ -4248,10 +4248,10 @@
         <v>84</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
         <v>19</v>
@@ -4268,10 +4268,10 @@
         <v>84</v>
       </c>
       <c r="B187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
         <v>19</v>
@@ -4288,7 +4288,7 @@
         <v>84</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C188" t="s">
         <v>18</v>
@@ -4308,7 +4308,7 @@
         <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C189" t="s">
         <v>18</v>
@@ -4328,7 +4328,7 @@
         <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C190" t="s">
         <v>18</v>
@@ -4348,7 +4348,7 @@
         <v>84</v>
       </c>
       <c r="B191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C191" t="s">
         <v>18</v>
@@ -4368,10 +4368,10 @@
         <v>84</v>
       </c>
       <c r="B192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
@@ -4388,10 +4388,10 @@
         <v>84</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" t="s">
         <v>19</v>
@@ -4408,10 +4408,10 @@
         <v>84</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
@@ -4428,10 +4428,10 @@
         <v>84</v>
       </c>
       <c r="B195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" t="s">
         <v>19</v>
@@ -4448,10 +4448,10 @@
         <v>84</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D196" t="s">
         <v>19</v>
@@ -4468,10 +4468,10 @@
         <v>84</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D197" t="s">
         <v>19</v>
@@ -4488,10 +4488,10 @@
         <v>84</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D198" t="s">
         <v>19</v>
@@ -4508,10 +4508,10 @@
         <v>84</v>
       </c>
       <c r="B199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D199" t="s">
         <v>19</v>
@@ -4528,7 +4528,7 @@
         <v>84</v>
       </c>
       <c r="B200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
         <v>20</v>
@@ -4548,7 +4548,7 @@
         <v>84</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
@@ -4568,7 +4568,7 @@
         <v>84</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
         <v>20</v>
@@ -4588,7 +4588,7 @@
         <v>84</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
@@ -4608,7 +4608,7 @@
         <v>84</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
@@ -4628,7 +4628,7 @@
         <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
@@ -4648,7 +4648,7 @@
         <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
@@ -4668,7 +4668,7 @@
         <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
@@ -4688,7 +4688,7 @@
         <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s">
         <v>16</v>
@@ -4708,7 +4708,7 @@
         <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C209" t="s">
         <v>16</v>
@@ -4728,7 +4728,7 @@
         <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
@@ -4748,7 +4748,7 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C211" t="s">
         <v>16</v>
@@ -4768,7 +4768,7 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
@@ -4788,7 +4788,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -4808,7 +4808,7 @@
         <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C214" t="s">
         <v>17</v>
@@ -4828,7 +4828,7 @@
         <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
@@ -4848,10 +4848,10 @@
         <v>185</v>
       </c>
       <c r="B216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D216" t="s">
         <v>20</v>
@@ -4868,10 +4868,10 @@
         <v>185</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D217" t="s">
         <v>20</v>
@@ -4888,10 +4888,10 @@
         <v>185</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D218" t="s">
         <v>20</v>
@@ -4908,10 +4908,10 @@
         <v>185</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D219" t="s">
         <v>20</v>
@@ -4928,10 +4928,10 @@
         <v>185</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D220" t="s">
         <v>20</v>
@@ -4948,10 +4948,10 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D221" t="s">
         <v>20</v>
@@ -4968,10 +4968,10 @@
         <v>185</v>
       </c>
       <c r="B222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D222" t="s">
         <v>20</v>
@@ -4988,10 +4988,10 @@
         <v>185</v>
       </c>
       <c r="B223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D223" t="s">
         <v>20</v>
@@ -5008,10 +5008,10 @@
         <v>185</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D224" t="s">
         <v>20</v>
@@ -5028,10 +5028,10 @@
         <v>185</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D225" t="s">
         <v>20</v>
@@ -5048,10 +5048,10 @@
         <v>185</v>
       </c>
       <c r="B226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D226" t="s">
         <v>20</v>
@@ -5068,10 +5068,10 @@
         <v>185</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D227" t="s">
         <v>20</v>
@@ -5088,10 +5088,10 @@
         <v>185</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D228" t="s">
         <v>20</v>
@@ -5108,10 +5108,10 @@
         <v>185</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D229" t="s">
         <v>20</v>
@@ -5128,10 +5128,10 @@
         <v>185</v>
       </c>
       <c r="B230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D230" t="s">
         <v>20</v>
@@ -5148,10 +5148,10 @@
         <v>185</v>
       </c>
       <c r="B231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D231" t="s">
         <v>20</v>
@@ -5168,10 +5168,10 @@
         <v>185</v>
       </c>
       <c r="B232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D232" t="s">
         <v>20</v>
@@ -5188,10 +5188,10 @@
         <v>185</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D233" t="s">
         <v>20</v>
@@ -5208,10 +5208,10 @@
         <v>185</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D234" t="s">
         <v>20</v>
@@ -5228,10 +5228,10 @@
         <v>185</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D235" t="s">
         <v>20</v>
@@ -5248,10 +5248,10 @@
         <v>185</v>
       </c>
       <c r="B236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D236" t="s">
         <v>20</v>
@@ -5268,10 +5268,10 @@
         <v>185</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D237" t="s">
         <v>20</v>
@@ -5288,10 +5288,10 @@
         <v>185</v>
       </c>
       <c r="B238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D238" t="s">
         <v>20</v>
@@ -5308,10 +5308,10 @@
         <v>185</v>
       </c>
       <c r="B239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D239" t="s">
         <v>20</v>
@@ -5328,10 +5328,10 @@
         <v>185</v>
       </c>
       <c r="B240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
         <v>20</v>
@@ -5348,10 +5348,10 @@
         <v>185</v>
       </c>
       <c r="B241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241" t="s">
         <v>20</v>
@@ -5368,10 +5368,10 @@
         <v>185</v>
       </c>
       <c r="B242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242" t="s">
         <v>20</v>
@@ -5388,10 +5388,10 @@
         <v>185</v>
       </c>
       <c r="B243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D243" t="s">
         <v>20</v>
@@ -5408,10 +5408,10 @@
         <v>185</v>
       </c>
       <c r="B244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D244" t="s">
         <v>20</v>
@@ -5428,10 +5428,10 @@
         <v>185</v>
       </c>
       <c r="B245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D245" t="s">
         <v>20</v>
@@ -5448,10 +5448,10 @@
         <v>185</v>
       </c>
       <c r="B246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" t="s">
         <v>20</v>
@@ -5468,10 +5468,10 @@
         <v>185</v>
       </c>
       <c r="B247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D247" t="s">
         <v>20</v>
@@ -5488,10 +5488,10 @@
         <v>185</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248" t="s">
         <v>20</v>
@@ -5508,10 +5508,10 @@
         <v>185</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D249" t="s">
         <v>20</v>
@@ -5528,10 +5528,10 @@
         <v>185</v>
       </c>
       <c r="B250" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D250" t="s">
         <v>20</v>
@@ -5548,10 +5548,10 @@
         <v>185</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D251" t="s">
         <v>20</v>
@@ -5568,7 +5568,7 @@
         <v>185</v>
       </c>
       <c r="B252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C252" t="s">
         <v>18</v>
@@ -5588,7 +5588,7 @@
         <v>185</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C253" t="s">
         <v>18</v>
@@ -5608,7 +5608,7 @@
         <v>185</v>
       </c>
       <c r="B254" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C254" t="s">
         <v>18</v>
@@ -5628,7 +5628,7 @@
         <v>185</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
         <v>18</v>
@@ -5648,7 +5648,7 @@
         <v>185</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C256" t="s">
         <v>18</v>
@@ -5668,7 +5668,7 @@
         <v>185</v>
       </c>
       <c r="B257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C257" t="s">
         <v>18</v>
@@ -5688,7 +5688,7 @@
         <v>185</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C258" t="s">
         <v>18</v>
@@ -5708,7 +5708,7 @@
         <v>185</v>
       </c>
       <c r="B259" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C259" t="s">
         <v>18</v>
@@ -5728,7 +5728,7 @@
         <v>185</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C260" t="s">
         <v>18</v>
@@ -5748,7 +5748,7 @@
         <v>185</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C261" t="s">
         <v>18</v>
@@ -5768,7 +5768,7 @@
         <v>185</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C262" t="s">
         <v>18</v>
@@ -5788,7 +5788,7 @@
         <v>185</v>
       </c>
       <c r="B263" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C263" t="s">
         <v>18</v>
@@ -5808,10 +5808,10 @@
         <v>185</v>
       </c>
       <c r="B264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D264" t="s">
         <v>20</v>
@@ -5828,10 +5828,10 @@
         <v>185</v>
       </c>
       <c r="B265" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D265" t="s">
         <v>20</v>
@@ -5848,10 +5848,10 @@
         <v>185</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D266" t="s">
         <v>20</v>
@@ -5868,10 +5868,10 @@
         <v>185</v>
       </c>
       <c r="B267" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D267" t="s">
         <v>20</v>
@@ -5888,10 +5888,10 @@
         <v>185</v>
       </c>
       <c r="B268" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D268" t="s">
         <v>20</v>
@@ -5908,10 +5908,10 @@
         <v>185</v>
       </c>
       <c r="B269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" t="s">
         <v>20</v>
@@ -5928,10 +5928,10 @@
         <v>185</v>
       </c>
       <c r="B270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D270" t="s">
         <v>20</v>
@@ -5948,10 +5948,10 @@
         <v>185</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D271" t="s">
         <v>20</v>
@@ -5968,10 +5968,10 @@
         <v>185</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D272" t="s">
         <v>20</v>
@@ -5988,10 +5988,10 @@
         <v>185</v>
       </c>
       <c r="B273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D273" t="s">
         <v>20</v>
@@ -6008,10 +6008,10 @@
         <v>185</v>
       </c>
       <c r="B274" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D274" t="s">
         <v>20</v>
@@ -6028,10 +6028,10 @@
         <v>185</v>
       </c>
       <c r="B275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D275" t="s">
         <v>20</v>
@@ -6048,10 +6048,10 @@
         <v>185</v>
       </c>
       <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" t="s">
         <v>28</v>
-      </c>
-      <c r="C276" t="s">
-        <v>29</v>
       </c>
       <c r="D276" t="s">
         <v>20</v>
@@ -6068,10 +6068,10 @@
         <v>185</v>
       </c>
       <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" t="s">
         <v>28</v>
-      </c>
-      <c r="C277" t="s">
-        <v>29</v>
       </c>
       <c r="D277" t="s">
         <v>20</v>
@@ -6088,10 +6088,10 @@
         <v>185</v>
       </c>
       <c r="B278" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" t="s">
         <v>28</v>
-      </c>
-      <c r="C278" t="s">
-        <v>29</v>
       </c>
       <c r="D278" t="s">
         <v>20</v>
@@ -6108,10 +6108,10 @@
         <v>185</v>
       </c>
       <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" t="s">
         <v>28</v>
-      </c>
-      <c r="C279" t="s">
-        <v>29</v>
       </c>
       <c r="D279" t="s">
         <v>20</v>
@@ -6128,10 +6128,10 @@
         <v>185</v>
       </c>
       <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s">
         <v>28</v>
-      </c>
-      <c r="C280" t="s">
-        <v>29</v>
       </c>
       <c r="D280" t="s">
         <v>20</v>
@@ -6148,10 +6148,10 @@
         <v>185</v>
       </c>
       <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" t="s">
         <v>28</v>
-      </c>
-      <c r="C281" t="s">
-        <v>29</v>
       </c>
       <c r="D281" t="s">
         <v>20</v>
@@ -6168,10 +6168,10 @@
         <v>185</v>
       </c>
       <c r="B282" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" t="s">
         <v>28</v>
-      </c>
-      <c r="C282" t="s">
-        <v>29</v>
       </c>
       <c r="D282" t="s">
         <v>20</v>
@@ -6188,10 +6188,10 @@
         <v>185</v>
       </c>
       <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="s">
         <v>28</v>
-      </c>
-      <c r="C283" t="s">
-        <v>29</v>
       </c>
       <c r="D283" t="s">
         <v>20</v>
@@ -6208,10 +6208,10 @@
         <v>185</v>
       </c>
       <c r="B284" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284" t="s">
         <v>28</v>
-      </c>
-      <c r="C284" t="s">
-        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>20</v>
@@ -6228,10 +6228,10 @@
         <v>185</v>
       </c>
       <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" t="s">
         <v>28</v>
-      </c>
-      <c r="C285" t="s">
-        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>20</v>
@@ -6248,10 +6248,10 @@
         <v>185</v>
       </c>
       <c r="B286" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" t="s">
         <v>28</v>
-      </c>
-      <c r="C286" t="s">
-        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>20</v>
@@ -6268,10 +6268,10 @@
         <v>185</v>
       </c>
       <c r="B287" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" t="s">
         <v>28</v>
-      </c>
-      <c r="C287" t="s">
-        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>20</v>
@@ -6288,10 +6288,10 @@
         <v>185</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D288" t="s">
         <v>20</v>
@@ -6308,10 +6308,10 @@
         <v>185</v>
       </c>
       <c r="B289" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D289" t="s">
         <v>20</v>
@@ -6328,10 +6328,10 @@
         <v>185</v>
       </c>
       <c r="B290" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C290" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D290" t="s">
         <v>20</v>
@@ -6348,10 +6348,10 @@
         <v>185</v>
       </c>
       <c r="B291" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D291" t="s">
         <v>20</v>
@@ -6368,10 +6368,10 @@
         <v>185</v>
       </c>
       <c r="B292" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D292" t="s">
         <v>20</v>
@@ -6388,10 +6388,10 @@
         <v>185</v>
       </c>
       <c r="B293" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D293" t="s">
         <v>20</v>
@@ -6408,10 +6408,10 @@
         <v>185</v>
       </c>
       <c r="B294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D294" t="s">
         <v>20</v>
@@ -6428,10 +6428,10 @@
         <v>185</v>
       </c>
       <c r="B295" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C295" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D295" t="s">
         <v>20</v>
@@ -6448,10 +6448,10 @@
         <v>185</v>
       </c>
       <c r="B296" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D296" t="s">
         <v>20</v>
@@ -6468,10 +6468,10 @@
         <v>185</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D297" t="s">
         <v>20</v>
@@ -6488,10 +6488,10 @@
         <v>185</v>
       </c>
       <c r="B298" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D298" t="s">
         <v>20</v>
@@ -6508,10 +6508,10 @@
         <v>185</v>
       </c>
       <c r="B299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C299" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D299" t="s">
         <v>20</v>
@@ -6528,7 +6528,7 @@
         <v>185</v>
       </c>
       <c r="B300" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C300" t="s">
         <v>20</v>
@@ -6548,7 +6548,7 @@
         <v>185</v>
       </c>
       <c r="B301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C301" t="s">
         <v>20</v>
@@ -6568,7 +6568,7 @@
         <v>185</v>
       </c>
       <c r="B302" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C302" t="s">
         <v>20</v>
@@ -6588,7 +6588,7 @@
         <v>185</v>
       </c>
       <c r="B303" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C303" t="s">
         <v>20</v>
@@ -6608,7 +6608,7 @@
         <v>185</v>
       </c>
       <c r="B304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C304" t="s">
         <v>20</v>
@@ -6628,7 +6628,7 @@
         <v>185</v>
       </c>
       <c r="B305" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C305" t="s">
         <v>20</v>
@@ -6648,7 +6648,7 @@
         <v>185</v>
       </c>
       <c r="B306" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C306" t="s">
         <v>20</v>
@@ -6668,7 +6668,7 @@
         <v>185</v>
       </c>
       <c r="B307" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
@@ -6688,7 +6688,7 @@
         <v>185</v>
       </c>
       <c r="B308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C308" t="s">
         <v>20</v>
@@ -6708,7 +6708,7 @@
         <v>185</v>
       </c>
       <c r="B309" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C309" t="s">
         <v>20</v>
@@ -6728,7 +6728,7 @@
         <v>185</v>
       </c>
       <c r="B310" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C310" t="s">
         <v>20</v>
@@ -6748,7 +6748,7 @@
         <v>185</v>
       </c>
       <c r="B311" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C311" t="s">
         <v>20</v>
@@ -6768,10 +6768,10 @@
         <v>185</v>
       </c>
       <c r="B312" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C312" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D312" t="s">
         <v>20</v>
@@ -6788,10 +6788,10 @@
         <v>185</v>
       </c>
       <c r="B313" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C313" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D313" t="s">
         <v>20</v>
@@ -6808,10 +6808,10 @@
         <v>185</v>
       </c>
       <c r="B314" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C314" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D314" t="s">
         <v>20</v>
@@ -6828,10 +6828,10 @@
         <v>185</v>
       </c>
       <c r="B315" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C315" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D315" t="s">
         <v>20</v>
@@ -6848,10 +6848,10 @@
         <v>185</v>
       </c>
       <c r="B316" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C316" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D316" t="s">
         <v>20</v>
@@ -6868,10 +6868,10 @@
         <v>185</v>
       </c>
       <c r="B317" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C317" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D317" t="s">
         <v>20</v>
@@ -6888,10 +6888,10 @@
         <v>185</v>
       </c>
       <c r="B318" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C318" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D318" t="s">
         <v>20</v>
@@ -6908,10 +6908,10 @@
         <v>185</v>
       </c>
       <c r="B319" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C319" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D319" t="s">
         <v>20</v>
@@ -6928,10 +6928,10 @@
         <v>185</v>
       </c>
       <c r="B320" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C320" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D320" t="s">
         <v>20</v>
@@ -6948,10 +6948,10 @@
         <v>185</v>
       </c>
       <c r="B321" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C321" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D321" t="s">
         <v>20</v>
@@ -6968,10 +6968,10 @@
         <v>185</v>
       </c>
       <c r="B322" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C322" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D322" t="s">
         <v>20</v>
@@ -6988,10 +6988,10 @@
         <v>185</v>
       </c>
       <c r="B323" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C323" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D323" t="s">
         <v>20</v>
@@ -7008,7 +7008,7 @@
         <v>185</v>
       </c>
       <c r="B324" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C324" t="s">
         <v>15</v>
@@ -7028,7 +7028,7 @@
         <v>185</v>
       </c>
       <c r="B325" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C325" t="s">
         <v>15</v>
@@ -7048,7 +7048,7 @@
         <v>185</v>
       </c>
       <c r="B326" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C326" t="s">
         <v>15</v>
@@ -7068,7 +7068,7 @@
         <v>185</v>
       </c>
       <c r="B327" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C327" t="s">
         <v>15</v>
@@ -7088,7 +7088,7 @@
         <v>185</v>
       </c>
       <c r="B328" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C328" t="s">
         <v>15</v>
@@ -7108,7 +7108,7 @@
         <v>185</v>
       </c>
       <c r="B329" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C329" t="s">
         <v>15</v>
@@ -7128,7 +7128,7 @@
         <v>185</v>
       </c>
       <c r="B330" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C330" t="s">
         <v>15</v>
@@ -7148,7 +7148,7 @@
         <v>185</v>
       </c>
       <c r="B331" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C331" t="s">
         <v>15</v>
@@ -7168,7 +7168,7 @@
         <v>185</v>
       </c>
       <c r="B332" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C332" t="s">
         <v>15</v>
@@ -7188,7 +7188,7 @@
         <v>185</v>
       </c>
       <c r="B333" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C333" t="s">
         <v>15</v>
@@ -7208,7 +7208,7 @@
         <v>185</v>
       </c>
       <c r="B334" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C334" t="s">
         <v>15</v>
@@ -7228,7 +7228,7 @@
         <v>185</v>
       </c>
       <c r="B335" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C335" t="s">
         <v>15</v>
@@ -7248,7 +7248,7 @@
         <v>185</v>
       </c>
       <c r="B336" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C336" t="s">
         <v>16</v>
@@ -7268,7 +7268,7 @@
         <v>185</v>
       </c>
       <c r="B337" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C337" t="s">
         <v>16</v>
@@ -7288,7 +7288,7 @@
         <v>185</v>
       </c>
       <c r="B338" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C338" t="s">
         <v>16</v>
@@ -7308,7 +7308,7 @@
         <v>185</v>
       </c>
       <c r="B339" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C339" t="s">
         <v>16</v>
@@ -7328,7 +7328,7 @@
         <v>185</v>
       </c>
       <c r="B340" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C340" t="s">
         <v>16</v>
@@ -7348,7 +7348,7 @@
         <v>185</v>
       </c>
       <c r="B341" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C341" t="s">
         <v>16</v>
@@ -7368,7 +7368,7 @@
         <v>185</v>
       </c>
       <c r="B342" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C342" t="s">
         <v>16</v>
@@ -7388,7 +7388,7 @@
         <v>185</v>
       </c>
       <c r="B343" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C343" t="s">
         <v>16</v>
@@ -7408,7 +7408,7 @@
         <v>185</v>
       </c>
       <c r="B344" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C344" t="s">
         <v>16</v>
@@ -7428,7 +7428,7 @@
         <v>185</v>
       </c>
       <c r="B345" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C345" t="s">
         <v>16</v>
@@ -7448,7 +7448,7 @@
         <v>185</v>
       </c>
       <c r="B346" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C346" t="s">
         <v>16</v>
@@ -7468,7 +7468,7 @@
         <v>185</v>
       </c>
       <c r="B347" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C347" t="s">
         <v>16</v>
@@ -7488,7 +7488,7 @@
         <v>185</v>
       </c>
       <c r="B348" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C348" t="s">
         <v>17</v>
@@ -7508,7 +7508,7 @@
         <v>185</v>
       </c>
       <c r="B349" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C349" t="s">
         <v>17</v>
@@ -7528,7 +7528,7 @@
         <v>185</v>
       </c>
       <c r="B350" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C350" t="s">
         <v>17</v>
@@ -7548,7 +7548,7 @@
         <v>185</v>
       </c>
       <c r="B351" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C351" t="s">
         <v>17</v>
@@ -7568,7 +7568,7 @@
         <v>185</v>
       </c>
       <c r="B352" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C352" t="s">
         <v>17</v>
@@ -7588,7 +7588,7 @@
         <v>185</v>
       </c>
       <c r="B353" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C353" t="s">
         <v>17</v>
@@ -7608,7 +7608,7 @@
         <v>185</v>
       </c>
       <c r="B354" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C354" t="s">
         <v>17</v>
@@ -7628,7 +7628,7 @@
         <v>185</v>
       </c>
       <c r="B355" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C355" t="s">
         <v>17</v>
@@ -7648,7 +7648,7 @@
         <v>185</v>
       </c>
       <c r="B356" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C356" t="s">
         <v>17</v>
@@ -7668,7 +7668,7 @@
         <v>185</v>
       </c>
       <c r="B357" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C357" t="s">
         <v>17</v>
@@ -7688,7 +7688,7 @@
         <v>185</v>
       </c>
       <c r="B358" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C358" t="s">
         <v>17</v>
@@ -7708,7 +7708,7 @@
         <v>185</v>
       </c>
       <c r="B359" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C359" t="s">
         <v>17</v>
@@ -7728,10 +7728,10 @@
         <v>185</v>
       </c>
       <c r="B360" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C360" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D360" t="s">
         <v>20</v>
@@ -7748,10 +7748,10 @@
         <v>185</v>
       </c>
       <c r="B361" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D361" t="s">
         <v>20</v>
@@ -7768,10 +7768,10 @@
         <v>185</v>
       </c>
       <c r="B362" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C362" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D362" t="s">
         <v>20</v>
@@ -7788,10 +7788,10 @@
         <v>185</v>
       </c>
       <c r="B363" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C363" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D363" t="s">
         <v>20</v>
@@ -7808,10 +7808,10 @@
         <v>185</v>
       </c>
       <c r="B364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C364" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D364" t="s">
         <v>20</v>
@@ -7828,10 +7828,10 @@
         <v>185</v>
       </c>
       <c r="B365" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C365" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D365" t="s">
         <v>20</v>
@@ -7848,10 +7848,10 @@
         <v>185</v>
       </c>
       <c r="B366" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C366" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D366" t="s">
         <v>20</v>
@@ -7868,10 +7868,10 @@
         <v>185</v>
       </c>
       <c r="B367" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C367" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D367" t="s">
         <v>20</v>
@@ -7888,10 +7888,10 @@
         <v>185</v>
       </c>
       <c r="B368" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C368" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D368" t="s">
         <v>20</v>
@@ -7908,10 +7908,10 @@
         <v>185</v>
       </c>
       <c r="B369" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C369" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D369" t="s">
         <v>20</v>
@@ -7928,10 +7928,10 @@
         <v>185</v>
       </c>
       <c r="B370" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C370" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D370" t="s">
         <v>20</v>
@@ -7948,10 +7948,10 @@
         <v>185</v>
       </c>
       <c r="B371" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C371" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D371" t="s">
         <v>20</v>
@@ -7968,13 +7968,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C372" t="s">
         <v>16</v>
       </c>
       <c r="D372" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -7988,13 +7988,13 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C373" t="s">
         <v>16</v>
       </c>
       <c r="D373" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E373">
         <v>2</v>
@@ -8008,13 +8008,13 @@
         <v>370</v>
       </c>
       <c r="B374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C374" t="s">
         <v>16</v>
       </c>
       <c r="D374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E374">
         <v>3</v>
@@ -8028,13 +8028,13 @@
         <v>370</v>
       </c>
       <c r="B375" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C375" t="s">
         <v>16</v>
       </c>
       <c r="D375" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E375">
         <v>4</v>
@@ -8048,13 +8048,13 @@
         <v>370</v>
       </c>
       <c r="B376" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C376" t="s">
         <v>16</v>
       </c>
       <c r="D376" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E376">
         <v>5</v>
@@ -8068,13 +8068,13 @@
         <v>370</v>
       </c>
       <c r="B377" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C377" t="s">
         <v>16</v>
       </c>
       <c r="D377" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E377">
         <v>6</v>
@@ -8096,7 +8096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8153,13 +8155,13 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8167,22 +8169,22 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -8194,17 +8196,17 @@
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>CONCATENATE(A2,B2,C2,D2)</f>
         <v>74Original Series / Specials (Season 1)Bio/Clip (E)Original Series</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -8212,22 +8214,22 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -8239,20 +8241,20 @@
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="str">
         <f t="shared" ref="M3:M66" si="0">CONCATENATE(A3,B3,C3,D3)</f>
         <v>74Original Series / Specials (Season 1)ConcertOriginal Series</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -8260,22 +8262,22 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -8287,17 +8289,17 @@
         <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)DocumentaryOriginal Series</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -8305,7 +8307,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -8314,13 +8316,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -8332,7 +8334,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>9</v>
@@ -8342,10 +8344,10 @@
         <v>74Original Series / Specials (Season 1)EpisodeOriginal Series</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8353,22 +8355,22 @@
         <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -8380,20 +8382,20 @@
         <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)EventsOriginal Series</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -8401,22 +8403,22 @@
         <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -8428,20 +8430,20 @@
         <v>9</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)MoviesOriginal Series</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -8449,22 +8451,22 @@
         <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -8476,20 +8478,20 @@
         <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)OriginalOriginal Series</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -8497,7 +8499,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -8506,13 +8508,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -8524,17 +8526,17 @@
         <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)Original SeriesOriginal Series</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8542,22 +8544,22 @@
         <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -8569,17 +8571,17 @@
         <v>9</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)PilotOriginal Series</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8587,7 +8589,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -8596,13 +8598,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -8614,17 +8616,17 @@
         <v>9</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)SeriesOriginal Series</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8632,7 +8634,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -8641,13 +8643,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -8659,17 +8661,17 @@
         <v>9</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)SpecialOriginal Series</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8677,7 +8679,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -8686,13 +8688,13 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -8704,17 +8706,17 @@
         <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)SportsOriginal Series</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8722,22 +8724,22 @@
         <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -8749,17 +8751,17 @@
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>74Original Series / Specials (Season 1)TopicalsOriginal Series</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8767,10 +8769,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
@@ -8782,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -8804,7 +8806,7 @@
         <v>75Original Series / Specials (Season 2)Bio/Clip (E)Original Series</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8812,10 +8814,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -8827,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -8849,7 +8851,7 @@
         <v>75Original Series / Specials (Season 2)ConcertOriginal Series</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8857,10 +8859,10 @@
         <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -8872,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -8894,7 +8896,7 @@
         <v>75Original Series / Specials (Season 2)DocumentaryOriginal Series</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -8902,7 +8904,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -8917,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>75Original Series / Specials (Season 2)EpisodeOriginal Series</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -8950,10 +8952,10 @@
         <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -8965,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -8987,7 +8989,7 @@
         <v>75Original Series / Specials (Season 2)EventsOriginal Series</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -8995,10 +8997,10 @@
         <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -9010,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -9032,7 +9034,7 @@
         <v>75Original Series / Specials (Season 2)MoviesOriginal Series</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -9040,10 +9042,10 @@
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -9055,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -9077,7 +9079,7 @@
         <v>75Original Series / Specials (Season 2)OriginalOriginal Series</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -9085,7 +9087,7 @@
         <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -9100,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -9122,7 +9124,7 @@
         <v>75Original Series / Specials (Season 2)Original SeriesOriginal Series</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -9130,10 +9132,10 @@
         <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -9145,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>75Original Series / Specials (Season 2)PilotOriginal Series</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -9175,7 +9177,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -9190,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -9212,7 +9214,7 @@
         <v>75Original Series / Specials (Season 2)SeriesOriginal Series</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -9220,7 +9222,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -9235,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -9257,7 +9259,7 @@
         <v>75Original Series / Specials (Season 2)SpecialOriginal Series</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9265,7 +9267,7 @@
         <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
@@ -9280,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -9302,7 +9304,7 @@
         <v>75Original Series / Specials (Season 2)SportsOriginal Series</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -9310,10 +9312,10 @@
         <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -9325,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -9347,7 +9349,7 @@
         <v>75Original Series / Specials (Season 2)TopicalsOriginal Series</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -9355,13 +9357,13 @@
         <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
@@ -9370,16 +9372,16 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>9</v>
@@ -9392,7 +9394,7 @@
         <v>76Acquired MoviesAcquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -9400,13 +9402,13 @@
         <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -9415,16 +9417,16 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>9</v>
@@ -9437,7 +9439,7 @@
         <v>76Acquired MoviesDocumentaryAcquired Movies</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -9445,13 +9447,13 @@
         <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -9460,16 +9462,16 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>9</v>
@@ -9482,7 +9484,7 @@
         <v>76Acquired MoviesMoviesAcquired Movies</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -9490,13 +9492,13 @@
         <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
@@ -9505,16 +9507,16 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>9</v>
@@ -9527,7 +9529,7 @@
         <v>76Acquired MoviesOriginalAcquired Movies</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -9535,13 +9537,13 @@
         <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
@@ -9550,16 +9552,16 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>9</v>
@@ -9572,7 +9574,7 @@
         <v>76Acquired MoviesOriginal MiniSeriesAcquired Movies</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -9580,13 +9582,13 @@
         <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
@@ -9595,16 +9597,16 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>9</v>
@@ -9617,10 +9619,10 @@
         <v>76Acquired MoviesOriginal SeriesAcquired Movies</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -9628,13 +9630,13 @@
         <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
@@ -9643,16 +9645,16 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>9</v>
@@ -9665,7 +9667,7 @@
         <v>76Acquired MoviesSeriesAcquired Movies</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -9673,13 +9675,13 @@
         <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -9688,16 +9690,16 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>9</v>
@@ -9710,7 +9712,7 @@
         <v>76Acquired MoviesSpecialAcquired Movies</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -9721,7 +9723,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>19</v>
@@ -9733,16 +9735,16 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>9</v>
@@ -9755,7 +9757,7 @@
         <v>77Acquired SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -9766,7 +9768,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>19</v>
@@ -9778,16 +9780,16 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>9</v>
@@ -9800,7 +9802,7 @@
         <v>77Acquired SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -9811,7 +9813,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>19</v>
@@ -9823,16 +9825,16 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>9</v>
@@ -9845,7 +9847,7 @@
         <v>77Acquired SeriesConcertAcquired Series</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -9856,7 +9858,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>19</v>
@@ -9868,16 +9870,16 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>9</v>
@@ -9890,7 +9892,7 @@
         <v>77Acquired SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -9913,16 +9915,16 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>9</v>
@@ -9935,10 +9937,10 @@
         <v>77Acquired SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -9949,7 +9951,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>19</v>
@@ -9961,16 +9963,16 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>9</v>
@@ -9983,7 +9985,7 @@
         <v>77Acquired SeriesEventsAcquired Series</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -9994,7 +9996,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>19</v>
@@ -10006,16 +10008,16 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>9</v>
@@ -10028,7 +10030,7 @@
         <v>77Acquired SeriesMoviesAcquired Series</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -10051,16 +10053,16 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>9</v>
@@ -10073,7 +10075,7 @@
         <v>77Acquired SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -10096,16 +10098,16 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>9</v>
@@ -10118,7 +10120,7 @@
         <v>77Acquired SeriesSeriesAcquired Series</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -10141,16 +10143,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>9</v>
@@ -10163,7 +10165,7 @@
         <v>77Acquired SeriesSpecialAcquired Series</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -10186,16 +10188,16 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>9</v>
@@ -10208,7 +10210,7 @@
         <v>77Acquired SeriesSportsAcquired Series</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -10216,14 +10218,14 @@
         <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="1">
         <v>24</v>
@@ -10243,7 +10245,7 @@
         <v>9</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>9</v>
@@ -10253,7 +10255,7 @@
         <v>78Original Films/ Movie of the WeekDocumentaryOriginal Movies</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -10261,14 +10263,14 @@
         <v>78</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H48" s="1">
         <v>24</v>
@@ -10288,7 +10290,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>9</v>
@@ -10298,7 +10300,7 @@
         <v>78Original Films/ Movie of the WeekMoviesOriginal Movies</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -10306,14 +10308,14 @@
         <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="1">
         <v>24</v>
@@ -10333,7 +10335,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>9</v>
@@ -10343,7 +10345,7 @@
         <v>78Original Films/ Movie of the WeekOriginalOriginal Movies</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -10351,14 +10353,14 @@
         <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
@@ -10366,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1">
         <v>24</v>
@@ -10378,7 +10380,7 @@
         <v>9</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>9</v>
@@ -10388,7 +10390,7 @@
         <v>78Original Films/ Movie of the WeekOriginal MiniSeriesOriginal Movies</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -10396,14 +10398,14 @@
         <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
@@ -10411,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="1">
         <v>24</v>
@@ -10423,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>9</v>
@@ -10433,7 +10435,7 @@
         <v>78Original Films/ Movie of the WeekOriginal SeriesOriginal Movies</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -10441,14 +10443,14 @@
         <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
@@ -10456,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="1">
         <v>24</v>
@@ -10468,7 +10470,7 @@
         <v>9</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>9</v>
@@ -10478,7 +10480,7 @@
         <v>78Original Films/ Movie of the WeekPilotOriginal Movies</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -10486,13 +10488,13 @@
         <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
@@ -10501,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="1">
         <v>24</v>
@@ -10513,7 +10515,7 @@
         <v>9</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>9</v>
@@ -10523,7 +10525,7 @@
         <v>78Original Films/ Movie of the WeekSeriesOriginal Movies</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -10531,13 +10533,13 @@
         <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
@@ -10546,7 +10548,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -10568,7 +10570,7 @@
         <v>81Acquired Movies (Multiple Windows)Acquired MiniSeriesAcquired Movies</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -10576,13 +10578,13 @@
         <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
@@ -10591,7 +10593,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -10613,7 +10615,7 @@
         <v>81Acquired Movies (Multiple Windows)DocumentaryAcquired Movies</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -10621,13 +10623,13 @@
         <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
@@ -10636,7 +10638,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -10658,7 +10660,7 @@
         <v>81Acquired Movies (Multiple Windows)MoviesAcquired Movies</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -10666,13 +10668,13 @@
         <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -10681,7 +10683,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -10703,7 +10705,7 @@
         <v>81Acquired Movies (Multiple Windows)OriginalAcquired Movies</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -10711,13 +10713,13 @@
         <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
@@ -10726,7 +10728,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -10748,7 +10750,7 @@
         <v>81Acquired Movies (Multiple Windows)Original MiniSeriesAcquired Movies</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -10756,13 +10758,13 @@
         <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
@@ -10771,7 +10773,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -10793,7 +10795,7 @@
         <v>81Acquired Movies (Multiple Windows)SeriesAcquired Movies</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -10801,13 +10803,13 @@
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>9</v>
@@ -10816,7 +10818,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>81Acquired Movies (Multiple Windows)SpecialAcquired Movies</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -10846,10 +10848,10 @@
         <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>19</v>
@@ -10861,7 +10863,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -10883,10 +10885,10 @@
         <v>84Acquired Link SeriesAcquired SpecialsAcquired Series</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -10894,10 +10896,10 @@
         <v>84</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
@@ -10909,7 +10911,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -10931,10 +10933,10 @@
         <v>84Acquired Link SeriesBio/Clip (E)Acquired Series</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -10942,10 +10944,10 @@
         <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -10957,7 +10959,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -10979,10 +10981,10 @@
         <v>84Acquired Link SeriesConcertAcquired Series</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -10990,10 +10992,10 @@
         <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
@@ -11005,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -11027,10 +11029,10 @@
         <v>84Acquired Link SeriesDocumentaryAcquired Series</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -11038,7 +11040,7 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>18</v>
@@ -11053,7 +11055,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -11075,10 +11077,10 @@
         <v>84Acquired Link SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -11086,10 +11088,10 @@
         <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
@@ -11101,7 +11103,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -11123,10 +11125,10 @@
         <v>84Acquired Link SeriesEventsAcquired Series</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -11134,10 +11136,10 @@
         <v>84</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>19</v>
@@ -11149,7 +11151,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -11171,10 +11173,10 @@
         <v>84Acquired Link SeriesMoviesAcquired Series</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -11182,7 +11184,7 @@
         <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>20</v>
@@ -11197,7 +11199,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -11219,10 +11221,10 @@
         <v>84Acquired Link SeriesOriginal SeriesAcquired Series</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -11230,7 +11232,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
@@ -11245,7 +11247,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -11267,10 +11269,10 @@
         <v>84Acquired Link SeriesSeriesAcquired Series</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -11278,7 +11280,7 @@
         <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>16</v>
@@ -11293,7 +11295,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -11315,10 +11317,10 @@
         <v>84Acquired Link SeriesSpecialAcquired Series</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -11326,7 +11328,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>17</v>
@@ -11341,7 +11343,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -11363,10 +11365,10 @@
         <v>84Acquired Link SeriesSportsAcquired Series</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -11374,13 +11376,13 @@
         <v>182</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
@@ -11389,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H72" s="1">
         <v>12</v>
@@ -11411,10 +11413,10 @@
         <v>182BlankConcertBlank</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -11422,13 +11424,13 @@
         <v>182</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -11437,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H73" s="1">
         <v>12</v>
@@ -11459,10 +11461,10 @@
         <v>182BlankDocumentaryBlank</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -11470,13 +11472,13 @@
         <v>182</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -11485,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H74" s="1">
         <v>12</v>
@@ -11507,10 +11509,10 @@
         <v>182BlankEventsBlank</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -11518,13 +11520,13 @@
         <v>182</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
@@ -11533,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H75" s="1">
         <v>12</v>
@@ -11555,10 +11557,10 @@
         <v>182BlankTopicalsBlank</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -11566,22 +11568,22 @@
         <v>185</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H76" s="1">
         <v>36</v>
@@ -11603,7 +11605,7 @@
         <v>185DocumentaryBio/Clip (E)Original Series</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -11611,22 +11613,22 @@
         <v>185</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H77" s="1">
         <v>36</v>
@@ -11648,7 +11650,7 @@
         <v>185DocumentaryConcertOriginal Series</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -11656,22 +11658,22 @@
         <v>185</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H78" s="1">
         <v>36</v>
@@ -11693,7 +11695,7 @@
         <v>185DocumentaryDocumentaryOriginal Series</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -11701,7 +11703,7 @@
         <v>185</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>18</v>
@@ -11710,13 +11712,13 @@
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H79" s="1">
         <v>36</v>
@@ -11738,10 +11740,10 @@
         <v>185DocumentaryEpisodeOriginal Series</v>
       </c>
       <c r="N79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -11749,22 +11751,22 @@
         <v>185</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H80" s="1">
         <v>36</v>
@@ -11786,7 +11788,7 @@
         <v>185DocumentaryEventsOriginal Series</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -11794,22 +11796,22 @@
         <v>185</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81" s="1">
         <v>36</v>
@@ -11831,7 +11833,7 @@
         <v>185DocumentaryMoviesOriginal Series</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -11839,22 +11841,22 @@
         <v>185</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H82" s="1">
         <v>36</v>
@@ -11876,7 +11878,7 @@
         <v>185DocumentaryOriginalOriginal Series</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -11884,7 +11886,7 @@
         <v>185</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>20</v>
@@ -11893,13 +11895,13 @@
         <v>20</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H83" s="1">
         <v>36</v>
@@ -11921,7 +11923,7 @@
         <v>185DocumentaryOriginal SeriesOriginal Series</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -11929,22 +11931,22 @@
         <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H84" s="1">
         <v>36</v>
@@ -11966,7 +11968,7 @@
         <v>185DocumentaryPilotOriginal Series</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -11974,7 +11976,7 @@
         <v>185</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>15</v>
@@ -11983,13 +11985,13 @@
         <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="1">
         <v>36</v>
@@ -12011,7 +12013,7 @@
         <v>185DocumentarySeriesOriginal Series</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -12019,7 +12021,7 @@
         <v>185</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>16</v>
@@ -12028,13 +12030,13 @@
         <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H86" s="1">
         <v>36</v>
@@ -12056,7 +12058,7 @@
         <v>185DocumentarySpecialOriginal Series</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -12064,7 +12066,7 @@
         <v>185</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>17</v>
@@ -12073,13 +12075,13 @@
         <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H87" s="1">
         <v>36</v>
@@ -12101,7 +12103,7 @@
         <v>185DocumentarySportsOriginal Series</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -12109,22 +12111,22 @@
         <v>185</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H88" s="1">
         <v>36</v>
@@ -12146,7 +12148,7 @@
         <v>185DocumentaryTopicalsOriginal Series</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -12154,22 +12156,22 @@
         <v>370</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H89" s="1">
         <v>36</v>
@@ -12191,7 +12193,7 @@
         <v>370SpecialsSpecialSpecials</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -12241,16 +12243,16 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2)</f>
@@ -12262,16 +12264,16 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F65" si="0">CONCATENATE(A3,B3,C3,D3)</f>
@@ -12283,16 +12285,16 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12304,16 +12306,16 @@
         <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12334,7 +12336,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12346,7 +12348,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -12355,7 +12357,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12367,7 +12369,7 @@
         <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -12376,7 +12378,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12388,16 +12390,16 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12418,7 +12420,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12430,16 +12432,16 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12454,13 +12456,13 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12472,16 +12474,16 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12496,13 +12498,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12517,13 +12519,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12535,7 +12537,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -12544,7 +12546,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12556,16 +12558,16 @@
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12577,16 +12579,16 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12598,7 +12600,7 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -12607,7 +12609,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12619,16 +12621,16 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12640,16 +12642,16 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12664,13 +12666,13 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12685,13 +12687,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12703,16 +12705,16 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12724,16 +12726,16 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12745,16 +12747,16 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12766,16 +12768,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12787,16 +12789,16 @@
         <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12817,7 +12819,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12829,16 +12831,16 @@
         <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12850,16 +12852,16 @@
         <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12871,16 +12873,16 @@
         <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12892,16 +12894,16 @@
         <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12922,7 +12924,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12937,13 +12939,13 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12955,16 +12957,16 @@
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12976,16 +12978,16 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -12997,16 +12999,16 @@
         <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13018,16 +13020,16 @@
         <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13039,16 +13041,16 @@
         <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13060,16 +13062,16 @@
         <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13081,16 +13083,16 @@
         <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13102,16 +13104,16 @@
         <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13123,16 +13125,16 @@
         <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13144,7 +13146,7 @@
         <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -13153,7 +13155,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13165,16 +13167,16 @@
         <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13186,16 +13188,16 @@
         <v>370</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13207,16 +13209,16 @@
         <v>185</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13228,16 +13230,16 @@
         <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13249,16 +13251,16 @@
         <v>185</v>
       </c>
       <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
         <v>28</v>
       </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13270,16 +13272,16 @@
         <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13291,7 +13293,7 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -13300,7 +13302,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13312,16 +13314,16 @@
         <v>185</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13333,7 +13335,7 @@
         <v>185</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -13342,7 +13344,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13354,7 +13356,7 @@
         <v>185</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>17</v>
@@ -13363,7 +13365,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13375,16 +13377,16 @@
         <v>185</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13396,16 +13398,16 @@
         <v>185</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13417,7 +13419,7 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -13426,7 +13428,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13438,7 +13440,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -13447,7 +13449,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13459,16 +13461,16 @@
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13480,16 +13482,16 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13501,7 +13503,7 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -13510,7 +13512,7 @@
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13522,16 +13524,16 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13543,7 +13545,7 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -13552,7 +13554,7 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -13564,16 +13566,16 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="s">
-        <v>43</v>
-      </c>
       <c r="D65" t="s">
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="0"/>
